--- a/DatabaseUpdate/ExcelFiles/Staffs.xlsx
+++ b/DatabaseUpdate/ExcelFiles/Staffs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -43,12 +43,12 @@
     <x:t>Директор</x:t>
   </x:si>
   <x:si>
+    <x:t>False</x:t>
+  </x:si>
+  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>False</x:t>
-  </x:si>
-  <x:si>
     <x:t>Заместитель директора по научной работе</x:t>
   </x:si>
   <x:si>
@@ -998,6 +998,9 @@
   </x:si>
   <x:si>
     <x:t>Заведующий отделением-врач-аллерголог-иммунолог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1348,7 +1351,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F161"/>
+  <x:dimension ref="A1:F162"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1388,15 +1391,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>7</x:v>
@@ -1408,10 +1411,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1428,10 +1431,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -1448,10 +1451,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -1468,10 +1471,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -1488,10 +1491,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -1508,10 +1511,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -1528,10 +1531,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -1548,10 +1551,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -1568,10 +1571,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -1588,10 +1591,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -1608,10 +1611,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -1628,10 +1631,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
@@ -1648,10 +1651,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -1668,10 +1671,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -1688,10 +1691,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -1708,10 +1711,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
@@ -1728,10 +1731,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -1748,10 +1751,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -1768,10 +1771,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
@@ -1788,10 +1791,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
@@ -1808,10 +1811,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
@@ -1828,10 +1831,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -1848,10 +1851,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
@@ -1868,10 +1871,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
@@ -1888,10 +1891,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
@@ -1908,10 +1911,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
@@ -1928,10 +1931,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
@@ -1948,10 +1951,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
@@ -1968,10 +1971,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
@@ -1988,10 +1991,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
@@ -2008,10 +2011,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
@@ -2028,10 +2031,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
@@ -2048,10 +2051,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
@@ -2068,10 +2071,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
@@ -2088,10 +2091,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
@@ -2108,10 +2111,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
@@ -2128,10 +2131,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
@@ -2148,10 +2151,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
@@ -2168,10 +2171,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
@@ -2188,10 +2191,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
@@ -2208,10 +2211,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
@@ -2228,10 +2231,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
@@ -2248,10 +2251,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
@@ -2268,10 +2271,10 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
@@ -2288,10 +2291,10 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
@@ -2308,10 +2311,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
@@ -2328,10 +2331,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
@@ -2348,10 +2351,10 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
@@ -2368,10 +2371,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6">
@@ -2388,10 +2391,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:6">
@@ -2408,10 +2411,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:6">
@@ -2428,10 +2431,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:6">
@@ -2448,10 +2451,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:6">
@@ -2468,10 +2471,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:6">
@@ -2488,10 +2491,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:6">
@@ -2508,10 +2511,10 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:6">
@@ -2528,10 +2531,10 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:6">
@@ -2548,10 +2551,10 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:6">
@@ -2568,10 +2571,10 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:6">
@@ -2588,10 +2591,10 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:6">
@@ -2608,10 +2611,10 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:6">
@@ -2628,10 +2631,10 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:6">
@@ -2648,10 +2651,10 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:6">
@@ -2668,10 +2671,10 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:6">
@@ -2688,10 +2691,10 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:6">
@@ -2708,10 +2711,10 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:6">
@@ -2728,10 +2731,10 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:6">
@@ -2748,10 +2751,10 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:6">
@@ -2768,10 +2771,10 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:6">
@@ -2788,10 +2791,10 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:6">
@@ -2808,10 +2811,10 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:6">
@@ -2828,10 +2831,10 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:6">
@@ -2848,10 +2851,10 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:6">
@@ -2868,10 +2871,10 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:6">
@@ -2888,10 +2891,10 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:6">
@@ -2908,10 +2911,10 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:6">
@@ -2928,10 +2931,10 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:6">
@@ -2948,10 +2951,10 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:6">
@@ -2968,10 +2971,10 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:6">
@@ -2988,10 +2991,10 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:6">
@@ -3008,10 +3011,10 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:6">
@@ -3028,10 +3031,10 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:6">
@@ -3048,10 +3051,10 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:6">
@@ -3068,10 +3071,10 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:6">
@@ -3088,10 +3091,10 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:6">
@@ -3108,10 +3111,10 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:6">
@@ -3128,10 +3131,10 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F89" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:6">
@@ -3148,10 +3151,10 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F90" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:6">
@@ -3168,10 +3171,10 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F91" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:6">
@@ -3188,10 +3191,10 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:6">
@@ -3208,10 +3211,10 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:6">
@@ -3228,10 +3231,10 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:6">
@@ -3248,10 +3251,10 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:6">
@@ -3268,10 +3271,10 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:6">
@@ -3288,10 +3291,10 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:6">
@@ -3308,10 +3311,10 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:6">
@@ -3328,10 +3331,10 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F99" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:6">
@@ -3348,10 +3351,10 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:6">
@@ -3368,10 +3371,10 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:6">
@@ -3388,10 +3391,10 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F102" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:6">
@@ -3408,10 +3411,10 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F103" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:6">
@@ -3428,10 +3431,10 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F104" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:6">
@@ -3448,10 +3451,10 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F105" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:6">
@@ -3468,10 +3471,10 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F106" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:6">
@@ -3488,10 +3491,10 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F107" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:6">
@@ -3508,10 +3511,10 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F108" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:6">
@@ -3528,10 +3531,10 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F109" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:6">
@@ -3548,10 +3551,10 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F110" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:6">
@@ -3568,10 +3571,10 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F111" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:6">
@@ -3588,10 +3591,10 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F112" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:6">
@@ -3608,10 +3611,10 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F113" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:6">
@@ -3628,10 +3631,10 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F114" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:6">
@@ -3648,10 +3651,10 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F115" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:6">
@@ -3668,10 +3671,10 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F116" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:6">
@@ -3688,10 +3691,10 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F117" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:6">
@@ -3708,10 +3711,10 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F118" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:6">
@@ -3728,10 +3731,10 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F119" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:6">
@@ -3748,10 +3751,10 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F120" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:6">
@@ -3768,10 +3771,10 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F121" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:6">
@@ -3788,10 +3791,10 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F122" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:6">
@@ -3808,10 +3811,10 @@
         <x:v>251</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F123" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:6">
@@ -3828,10 +3831,10 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F124" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:6">
@@ -3848,10 +3851,10 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F125" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:6">
@@ -3868,10 +3871,10 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F126" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:6">
@@ -3888,10 +3891,10 @@
         <x:v>259</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F127" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:6">
@@ -3908,10 +3911,10 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F128" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:6">
@@ -3928,10 +3931,10 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F129" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:6">
@@ -3948,10 +3951,10 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F130" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:6">
@@ -3968,10 +3971,10 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F131" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:6">
@@ -3988,10 +3991,10 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F132" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:6">
@@ -4008,10 +4011,10 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F133" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:6">
@@ -4028,10 +4031,10 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="E134" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F134" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:6">
@@ -4048,10 +4051,10 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F135" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:6">
@@ -4068,10 +4071,10 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="E136" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F136" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:6">
@@ -4088,10 +4091,10 @@
         <x:v>279</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F137" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:6">
@@ -4108,10 +4111,10 @@
         <x:v>281</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F138" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:6">
@@ -4128,10 +4131,10 @@
         <x:v>283</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F139" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:6">
@@ -4148,10 +4151,10 @@
         <x:v>285</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F140" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:6">
@@ -4168,10 +4171,10 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="E141" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F141" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:6">
@@ -4188,10 +4191,10 @@
         <x:v>289</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F142" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:6">
@@ -4208,10 +4211,10 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F143" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:6">
@@ -4228,10 +4231,10 @@
         <x:v>293</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F144" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:6">
@@ -4248,10 +4251,10 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F145" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:6">
@@ -4268,10 +4271,10 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F146" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:6">
@@ -4288,10 +4291,10 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F147" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:6">
@@ -4308,10 +4311,10 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F148" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:6">
@@ -4328,10 +4331,10 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F149" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:6">
@@ -4348,10 +4351,10 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E150" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F150" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:6">
@@ -4368,10 +4371,10 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="E151" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F151" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:6">
@@ -4388,10 +4391,10 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F152" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:6">
@@ -4408,10 +4411,10 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F153" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:6">
@@ -4428,10 +4431,10 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F154" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:6">
@@ -4448,10 +4451,10 @@
         <x:v>315</x:v>
       </x:c>
       <x:c r="E155" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F155" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:6">
@@ -4468,10 +4471,10 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="E156" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F156" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:6">
@@ -4488,10 +4491,10 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="E157" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F157" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:6">
@@ -4508,10 +4511,10 @@
         <x:v>321</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F158" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:6">
@@ -4528,10 +4531,10 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F159" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:6">
@@ -4548,10 +4551,10 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F160" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:6">
@@ -4568,10 +4571,26 @@
         <x:v>327</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F161" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:6">
+      <x:c r="A162" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s"/>
+      <x:c r="D162" s="0" t="s"/>
+      <x:c r="E162" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F162" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
